--- a/ma.xlsx
+++ b/ma.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\web-tufe-streamlit\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B906B93C-15AD-44DC-A4A5-E3B14D803939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Gösterge</t>
   </si>
@@ -41,6 +35,9 @@
   </si>
   <si>
     <t>2025-07</t>
+  </si>
+  <si>
+    <t>2025-08</t>
   </si>
   <si>
     <t>Kira</t>
@@ -94,8 +91,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,21 +155,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -210,7 +199,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -244,7 +233,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -279,10 +267,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -455,19 +442,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,421 +471,472 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="D2">
-        <v>4.43</v>
+        <v>4.32</v>
       </c>
       <c r="E2">
-        <v>4.93</v>
+        <v>4.85</v>
       </c>
       <c r="F2">
-        <v>4.7</v>
+        <v>4.51</v>
       </c>
       <c r="G2">
-        <v>4.88</v>
+        <v>4.69</v>
       </c>
       <c r="H2">
-        <v>4.92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4.28</v>
+      </c>
+      <c r="I2">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="D3">
-        <v>2.0099999999999998</v>
+        <v>1.94</v>
       </c>
       <c r="E3">
-        <v>2.79</v>
+        <v>2.94</v>
       </c>
       <c r="F3">
-        <v>3.01</v>
+        <v>3.59</v>
       </c>
       <c r="G3">
-        <v>3.12</v>
+        <v>3.23</v>
       </c>
       <c r="H3">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3.41</v>
+      </c>
+      <c r="I3">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>1.86</v>
+        <v>1.62</v>
       </c>
       <c r="D4">
-        <v>3.41</v>
+        <v>3.12</v>
       </c>
       <c r="E4">
-        <v>2.59</v>
+        <v>2.26</v>
       </c>
       <c r="F4">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="G4">
-        <v>2.75</v>
+        <v>2.28</v>
       </c>
       <c r="H4">
-        <v>2.83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.54</v>
+      </c>
+      <c r="I4">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>4.49</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>3.89</v>
+        <v>3.34</v>
       </c>
       <c r="E5">
-        <v>3.12</v>
+        <v>2.44</v>
       </c>
       <c r="F5">
-        <v>3.63</v>
+        <v>2.91</v>
       </c>
       <c r="G5">
-        <v>5.12</v>
+        <v>4.41</v>
       </c>
       <c r="H5">
-        <v>2.94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.25</v>
+      </c>
+      <c r="I5">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>2.79</v>
+        <v>2.67</v>
       </c>
       <c r="D6">
-        <v>2.91</v>
+        <v>2.7</v>
       </c>
       <c r="E6">
-        <v>2.81</v>
+        <v>2.64</v>
       </c>
       <c r="F6">
-        <v>3.13</v>
+        <v>3.04</v>
       </c>
       <c r="G6">
-        <v>3.5</v>
+        <v>3.24</v>
       </c>
       <c r="H6">
-        <v>3.17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="D7">
-        <v>3.99</v>
+        <v>3.97</v>
       </c>
       <c r="E7">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="F7">
-        <v>1.51</v>
+        <v>1.37</v>
       </c>
       <c r="G7">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="H7">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.58</v>
+      </c>
+      <c r="I7">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>-5.51</v>
+        <v>-5.5</v>
       </c>
       <c r="D8">
-        <v>7.96</v>
+        <v>7.92</v>
       </c>
       <c r="E8">
-        <v>0.23</v>
+        <v>0.4</v>
       </c>
       <c r="F8">
-        <v>2.5499999999999998</v>
+        <v>2.16</v>
       </c>
       <c r="G8">
-        <v>2.15</v>
+        <v>1.94</v>
       </c>
       <c r="H8">
-        <v>1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.4</v>
+      </c>
+      <c r="I8">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>-11.11</v>
+        <v>-11.06</v>
       </c>
       <c r="D9">
-        <v>15.13</v>
+        <v>15.19</v>
       </c>
       <c r="E9">
-        <v>-1.25</v>
+        <v>-1.19</v>
       </c>
       <c r="F9">
-        <v>3.66</v>
+        <v>3.71</v>
       </c>
       <c r="G9">
-        <v>0.81</v>
+        <v>0.86</v>
       </c>
       <c r="H9">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+      <c r="I9">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>-0.08</v>
+        <v>-0.09</v>
       </c>
       <c r="D10">
-        <v>1.77</v>
+        <v>1.63</v>
       </c>
       <c r="E10">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="F10">
-        <v>1.49</v>
+        <v>0.68</v>
       </c>
       <c r="G10">
-        <v>3.46</v>
+        <v>2.99</v>
       </c>
       <c r="H10">
-        <v>2.09</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.99</v>
+      </c>
+      <c r="I10">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>3.77</v>
+        <v>3.68</v>
       </c>
       <c r="D11">
-        <v>3.62</v>
+        <v>3.55</v>
       </c>
       <c r="E11">
-        <v>0.99</v>
+        <v>0.53</v>
       </c>
       <c r="F11">
-        <v>-1.01</v>
+        <v>-1.59</v>
       </c>
       <c r="G11">
-        <v>2.38</v>
+        <v>1.99</v>
       </c>
       <c r="H11">
-        <v>2.71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.35</v>
+      </c>
+      <c r="I11">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12">
-        <v>3.97</v>
+        <v>3.93</v>
       </c>
       <c r="D12">
-        <v>2.97</v>
+        <v>2.94</v>
       </c>
       <c r="E12">
-        <v>1.45</v>
+        <v>1.23</v>
       </c>
       <c r="F12">
-        <v>0.75</v>
+        <v>0.49</v>
       </c>
       <c r="G12">
-        <v>1.45</v>
+        <v>1.27</v>
       </c>
       <c r="H12">
-        <v>1.94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.78</v>
+      </c>
+      <c r="I12">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13">
-        <v>3.61</v>
+        <v>3.58</v>
       </c>
       <c r="D13">
-        <v>3.69</v>
+        <v>3.67</v>
       </c>
       <c r="E13">
-        <v>1.42</v>
+        <v>1.24</v>
       </c>
       <c r="F13">
-        <v>0.74</v>
+        <v>0.51</v>
       </c>
       <c r="G13">
-        <v>1.31</v>
+        <v>1.15</v>
       </c>
       <c r="H13">
-        <v>2.2400000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.13</v>
+      </c>
+      <c r="I13">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14">
-        <v>3.04</v>
+        <v>3.03</v>
       </c>
       <c r="D14">
-        <v>3.23</v>
+        <v>3.21</v>
       </c>
       <c r="E14">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="F14">
-        <v>1.22</v>
+        <v>1.06</v>
       </c>
       <c r="G14">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="H14">
-        <v>2.57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.53</v>
+      </c>
+      <c r="I14">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15">
-        <v>3.87</v>
+        <v>3.81</v>
       </c>
       <c r="D15">
-        <v>2.71</v>
+        <v>2.61</v>
       </c>
       <c r="E15">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="F15">
-        <v>1.77</v>
+        <v>1.63</v>
       </c>
       <c r="G15">
-        <v>2.14</v>
+        <v>1.96</v>
       </c>
       <c r="H15">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.27</v>
+      </c>
+      <c r="I15">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16">
-        <v>3.36</v>
+        <v>3.28</v>
       </c>
       <c r="D16">
-        <v>2.94</v>
+        <v>2.82</v>
       </c>
       <c r="E16">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="F16">
-        <v>1.98</v>
+        <v>1.81</v>
       </c>
       <c r="G16">
-        <v>2.52</v>
+        <v>2.3</v>
       </c>
       <c r="H16">
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.42</v>
+      </c>
+      <c r="I16">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="D17">
-        <v>3.13</v>
+        <v>3.05</v>
       </c>
       <c r="E17">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="F17">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="G17">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="H17">
-        <v>2.76</v>
+        <v>2.68</v>
+      </c>
+      <c r="I17">
+        <v>2.38</v>
       </c>
     </row>
   </sheetData>

--- a/ma.xlsx
+++ b/ma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>2025-09</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +495,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.74</v>
+        <v>4.8</v>
       </c>
       <c r="D2" t="n">
-        <v>4.34</v>
+        <v>4.08</v>
       </c>
       <c r="E2" t="n">
-        <v>4.88</v>
+        <v>5.63</v>
       </c>
       <c r="F2" t="n">
-        <v>4.56</v>
+        <v>3.74</v>
       </c>
       <c r="G2" t="n">
-        <v>4.76</v>
+        <v>4.93</v>
       </c>
       <c r="H2" t="n">
-        <v>4.32</v>
+        <v>4.24</v>
       </c>
       <c r="I2" t="n">
-        <v>3.3</v>
+        <v>3.42</v>
       </c>
       <c r="J2" t="n">
-        <v>3.43</v>
+        <v>3.32</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.13</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +532,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.7</v>
+        <v>2.56</v>
       </c>
       <c r="D3" t="n">
-        <v>2.44</v>
+        <v>1.84</v>
       </c>
       <c r="E3" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>3.09</v>
       </c>
       <c r="G3" t="n">
-        <v>2.86</v>
+        <v>3.16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.89</v>
+        <v>2.81</v>
       </c>
       <c r="I3" t="n">
-        <v>3.16</v>
+        <v>5.02</v>
       </c>
       <c r="J3" t="n">
-        <v>2.58</v>
+        <v>2.03</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +569,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.96</v>
+        <v>-3.9</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>4.28</v>
       </c>
       <c r="E4" t="n">
-        <v>3.14</v>
+        <v>3.82</v>
       </c>
       <c r="F4" t="n">
-        <v>2.89</v>
+        <v>3.66</v>
       </c>
       <c r="G4" t="n">
-        <v>3.31</v>
+        <v>4.15</v>
       </c>
       <c r="H4" t="n">
-        <v>3.66</v>
+        <v>3.96</v>
       </c>
       <c r="I4" t="n">
-        <v>2.44</v>
+        <v>-1.06</v>
       </c>
       <c r="J4" t="n">
-        <v>5.29</v>
+        <v>10.23</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.29</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +606,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.69</v>
+        <v>3.75</v>
       </c>
       <c r="D5" t="n">
-        <v>3.04</v>
+        <v>2.67</v>
       </c>
       <c r="E5" t="n">
-        <v>1.98</v>
+        <v>3.44</v>
       </c>
       <c r="F5" t="n">
-        <v>2.5</v>
+        <v>2.99</v>
       </c>
       <c r="G5" t="n">
-        <v>3.84</v>
+        <v>4.27</v>
       </c>
       <c r="H5" t="n">
-        <v>1.82</v>
+        <v>2.98</v>
       </c>
       <c r="I5" t="n">
-        <v>0.59</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>0.61</v>
+        <v>1.24</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.05</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +643,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.75</v>
+        <v>1.63</v>
       </c>
       <c r="D6" t="n">
-        <v>3.06</v>
+        <v>2.61</v>
       </c>
       <c r="E6" t="n">
-        <v>2.8</v>
+        <v>3.34</v>
       </c>
       <c r="F6" t="n">
-        <v>3.06</v>
+        <v>3.13</v>
       </c>
       <c r="G6" t="n">
-        <v>3.39</v>
+        <v>3.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.15</v>
+        <v>3.29</v>
       </c>
       <c r="I6" t="n">
-        <v>2.58</v>
+        <v>2.92</v>
       </c>
       <c r="J6" t="n">
-        <v>3.32</v>
+        <v>3.95</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.77</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +680,31 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.5</v>
+        <v>2.46</v>
       </c>
       <c r="D7" t="n">
-        <v>3.88</v>
+        <v>3.85</v>
       </c>
       <c r="E7" t="n">
-        <v>1.19</v>
+        <v>1.08</v>
       </c>
       <c r="F7" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="G7" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="H7" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="I7" t="n">
-        <v>3.51</v>
+        <v>3.64</v>
       </c>
       <c r="J7" t="n">
-        <v>3.26</v>
+        <v>3.34</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.56</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +717,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-5.17</v>
+        <v>-2.05</v>
       </c>
       <c r="D8" t="n">
-        <v>7.46</v>
+        <v>6.7</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="F8" t="n">
-        <v>2.09</v>
+        <v>2.19</v>
       </c>
       <c r="G8" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="H8" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="I8" t="n">
-        <v>4.89</v>
+        <v>4.82</v>
       </c>
       <c r="J8" t="n">
-        <v>3.48</v>
+        <v>3.73</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.41</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +754,31 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-11.13</v>
+        <v>-8.41</v>
       </c>
       <c r="D9" t="n">
-        <v>15.14</v>
+        <v>15.17</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.22</v>
+        <v>-1.2</v>
       </c>
       <c r="F9" t="n">
-        <v>3.7</v>
+        <v>3.71</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="H9" t="n">
-        <v>0.97</v>
+        <v>0.72</v>
       </c>
       <c r="I9" t="n">
-        <v>6.63</v>
+        <v>6.55</v>
       </c>
       <c r="J9" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.63</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +791,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.06</v>
+        <v>2.42</v>
       </c>
       <c r="D10" t="n">
-        <v>1.62</v>
+        <v>1.37</v>
       </c>
       <c r="E10" t="n">
-        <v>1.98</v>
+        <v>1.52</v>
       </c>
       <c r="F10" t="n">
-        <v>0.74</v>
+        <v>1.13</v>
       </c>
       <c r="G10" t="n">
-        <v>3.05</v>
+        <v>3.14</v>
       </c>
       <c r="H10" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="I10" t="n">
-        <v>3.44</v>
+        <v>3.64</v>
       </c>
       <c r="J10" t="n">
-        <v>4.87</v>
+        <v>5.06</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.63</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +828,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.7</v>
+        <v>3.01</v>
       </c>
       <c r="D11" t="n">
-        <v>3.57</v>
+        <v>2.77</v>
       </c>
       <c r="E11" t="n">
-        <v>0.55</v>
+        <v>1.55</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.56</v>
+        <v>-5.96</v>
       </c>
       <c r="G11" t="n">
-        <v>2.01</v>
+        <v>2.15</v>
       </c>
       <c r="H11" t="n">
-        <v>2.38</v>
+        <v>1.81</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06</v>
+        <v>1.46</v>
       </c>
       <c r="J11" t="n">
-        <v>1.07</v>
+        <v>1.75</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.62</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +865,31 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.81</v>
+        <v>3.37</v>
       </c>
       <c r="D12" t="n">
-        <v>2.57</v>
+        <v>2.26</v>
       </c>
       <c r="E12" t="n">
-        <v>1.61</v>
+        <v>1.91</v>
       </c>
       <c r="F12" t="n">
-        <v>1.41</v>
+        <v>0.23</v>
       </c>
       <c r="G12" t="n">
-        <v>0.99</v>
+        <v>1.06</v>
       </c>
       <c r="H12" t="n">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="I12" t="n">
-        <v>1.75</v>
+        <v>2.16</v>
       </c>
       <c r="J12" t="n">
-        <v>1.13</v>
+        <v>1.28</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.59</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +902,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3.47</v>
+        <v>3.05</v>
       </c>
       <c r="D13" t="n">
-        <v>3.34</v>
+        <v>3.13</v>
       </c>
       <c r="E13" t="n">
-        <v>1.56</v>
+        <v>1.82</v>
       </c>
       <c r="F13" t="n">
-        <v>1.32</v>
+        <v>0.29</v>
       </c>
       <c r="G13" t="n">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="H13" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="I13" t="n">
-        <v>2.26</v>
+        <v>2.66</v>
       </c>
       <c r="J13" t="n">
-        <v>1.12</v>
+        <v>1.25</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +939,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.95</v>
+        <v>3.09</v>
       </c>
       <c r="D14" t="n">
-        <v>3.02</v>
+        <v>2.9</v>
       </c>
       <c r="E14" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="F14" t="n">
-        <v>1.56</v>
+        <v>1.08</v>
       </c>
       <c r="G14" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="H14" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I14" t="n">
-        <v>2.47</v>
+        <v>2.71</v>
       </c>
       <c r="J14" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.34</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +976,31 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.8</v>
+        <v>3.36</v>
       </c>
       <c r="D15" t="n">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="E15" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="F15" t="n">
-        <v>2.09</v>
+        <v>1.46</v>
       </c>
       <c r="G15" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="H15" t="n">
-        <v>2.28</v>
+        <v>2.23</v>
       </c>
       <c r="I15" t="n">
-        <v>2.27</v>
+        <v>2.55</v>
       </c>
       <c r="J15" t="n">
-        <v>2.45</v>
+        <v>2.64</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.66</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +1013,31 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.26</v>
+        <v>2.58</v>
       </c>
       <c r="D16" t="n">
-        <v>2.82</v>
+        <v>2.42</v>
       </c>
       <c r="E16" t="n">
-        <v>2.22</v>
+        <v>2.55</v>
       </c>
       <c r="F16" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G16" t="n">
         <v>2.27</v>
       </c>
-      <c r="G16" t="n">
-        <v>2.25</v>
-      </c>
       <c r="H16" t="n">
-        <v>2.41</v>
+        <v>2.34</v>
       </c>
       <c r="I16" t="n">
-        <v>2.19</v>
+        <v>2.52</v>
       </c>
       <c r="J16" t="n">
-        <v>2.29</v>
+        <v>2.53</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.15</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +1050,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.88</v>
+        <v>2.72</v>
       </c>
       <c r="D17" t="n">
-        <v>3.03</v>
+        <v>2.83</v>
       </c>
       <c r="E17" t="n">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="F17" t="n">
-        <v>2.03</v>
+        <v>1.59</v>
       </c>
       <c r="G17" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H17" t="n">
-        <v>2.7</v>
+        <v>2.71</v>
       </c>
       <c r="I17" t="n">
-        <v>2.5</v>
+        <v>2.77</v>
       </c>
       <c r="J17" t="n">
-        <v>2.36</v>
+        <v>2.52</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.46</v>
       </c>
     </row>
   </sheetData>

--- a/ma.xlsx
+++ b/ma.xlsx
@@ -495,28 +495,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.8</v>
+        <v>4.76</v>
       </c>
       <c r="D2" t="n">
-        <v>4.08</v>
+        <v>4.35</v>
       </c>
       <c r="E2" t="n">
-        <v>5.63</v>
+        <v>4.87</v>
       </c>
       <c r="F2" t="n">
-        <v>3.74</v>
+        <v>4.54</v>
       </c>
       <c r="G2" t="n">
-        <v>4.93</v>
+        <v>4.72</v>
       </c>
       <c r="H2" t="n">
-        <v>4.24</v>
+        <v>4.27</v>
       </c>
       <c r="I2" t="n">
-        <v>3.42</v>
+        <v>3.27</v>
       </c>
       <c r="J2" t="n">
-        <v>3.32</v>
+        <v>3.29</v>
       </c>
       <c r="K2" t="n">
         <v>3.13</v>
@@ -532,31 +532,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.56</v>
+        <v>2.67</v>
       </c>
       <c r="D3" t="n">
-        <v>1.84</v>
+        <v>2.26</v>
       </c>
       <c r="E3" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="F3" t="n">
-        <v>3.09</v>
+        <v>2.86</v>
       </c>
       <c r="G3" t="n">
-        <v>3.16</v>
+        <v>3.1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.81</v>
+        <v>2.76</v>
       </c>
       <c r="I3" t="n">
-        <v>5.02</v>
+        <v>3.42</v>
       </c>
       <c r="J3" t="n">
-        <v>2.03</v>
+        <v>2.49</v>
       </c>
       <c r="K3" t="n">
-        <v>2.2</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="4">
@@ -569,31 +569,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-3.9</v>
+        <v>2.11</v>
       </c>
       <c r="D4" t="n">
-        <v>4.28</v>
+        <v>4.01</v>
       </c>
       <c r="E4" t="n">
-        <v>3.82</v>
+        <v>3.03</v>
       </c>
       <c r="F4" t="n">
-        <v>3.66</v>
+        <v>2.87</v>
       </c>
       <c r="G4" t="n">
-        <v>4.15</v>
+        <v>3.45</v>
       </c>
       <c r="H4" t="n">
-        <v>3.96</v>
+        <v>3.46</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.06</v>
+        <v>2.56</v>
       </c>
       <c r="J4" t="n">
-        <v>10.23</v>
+        <v>5.01</v>
       </c>
       <c r="K4" t="n">
-        <v>4.29</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="5">
@@ -606,31 +606,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.75</v>
+        <v>3.78</v>
       </c>
       <c r="D5" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="E5" t="n">
-        <v>3.44</v>
+        <v>3.48</v>
       </c>
       <c r="F5" t="n">
-        <v>2.99</v>
+        <v>3.02</v>
       </c>
       <c r="G5" t="n">
-        <v>4.27</v>
+        <v>4.31</v>
       </c>
       <c r="H5" t="n">
-        <v>2.98</v>
+        <v>3.03</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="J5" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="K5" t="n">
-        <v>3.05</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="6">
@@ -643,31 +643,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.63</v>
+        <v>2.83</v>
       </c>
       <c r="D6" t="n">
-        <v>2.61</v>
+        <v>2.81</v>
       </c>
       <c r="E6" t="n">
-        <v>3.34</v>
+        <v>2.96</v>
       </c>
       <c r="F6" t="n">
-        <v>3.13</v>
+        <v>3.16</v>
       </c>
       <c r="G6" t="n">
-        <v>3.7</v>
+        <v>3.48</v>
       </c>
       <c r="H6" t="n">
-        <v>3.29</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>2.92</v>
+        <v>3.01</v>
       </c>
       <c r="J6" t="n">
-        <v>3.95</v>
+        <v>3.17</v>
       </c>
       <c r="K6" t="n">
-        <v>2.77</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="7">
@@ -704,7 +704,7 @@
         <v>3.34</v>
       </c>
       <c r="K7" t="n">
-        <v>3.56</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="8">
@@ -828,31 +828,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.01</v>
+        <v>3.79</v>
       </c>
       <c r="D11" t="n">
-        <v>2.77</v>
+        <v>3.69</v>
       </c>
       <c r="E11" t="n">
-        <v>1.55</v>
+        <v>0.35</v>
       </c>
       <c r="F11" t="n">
-        <v>-5.96</v>
+        <v>-1.86</v>
       </c>
       <c r="G11" t="n">
-        <v>2.15</v>
+        <v>1.93</v>
       </c>
       <c r="H11" t="n">
-        <v>1.81</v>
+        <v>2.3</v>
       </c>
       <c r="I11" t="n">
-        <v>1.46</v>
+        <v>-0.15</v>
       </c>
       <c r="J11" t="n">
-        <v>1.75</v>
+        <v>0.96</v>
       </c>
       <c r="K11" t="n">
-        <v>1.62</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="12">
@@ -865,31 +865,31 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.37</v>
+        <v>3.56</v>
       </c>
       <c r="D12" t="n">
-        <v>2.26</v>
+        <v>2.49</v>
       </c>
       <c r="E12" t="n">
-        <v>1.91</v>
+        <v>1.6</v>
       </c>
       <c r="F12" t="n">
-        <v>0.23</v>
+        <v>1.28</v>
       </c>
       <c r="G12" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="H12" t="n">
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="I12" t="n">
-        <v>2.16</v>
+        <v>1.75</v>
       </c>
       <c r="J12" t="n">
-        <v>1.28</v>
+        <v>1.08</v>
       </c>
       <c r="K12" t="n">
-        <v>1.59</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="13">
@@ -902,31 +902,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3.05</v>
+        <v>3.22</v>
       </c>
       <c r="D13" t="n">
-        <v>3.13</v>
+        <v>3.33</v>
       </c>
       <c r="E13" t="n">
-        <v>1.82</v>
+        <v>1.56</v>
       </c>
       <c r="F13" t="n">
-        <v>0.29</v>
+        <v>1.2</v>
       </c>
       <c r="G13" t="n">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="H13" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="I13" t="n">
-        <v>2.66</v>
+        <v>2.3</v>
       </c>
       <c r="J13" t="n">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="K13" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="14">
@@ -939,31 +939,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.09</v>
+        <v>3.17</v>
       </c>
       <c r="D14" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="F14" t="n">
-        <v>1.08</v>
+        <v>1.51</v>
       </c>
       <c r="G14" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H14" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="I14" t="n">
-        <v>2.71</v>
+        <v>2.55</v>
       </c>
       <c r="J14" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="K14" t="n">
-        <v>2.34</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="15">
@@ -976,31 +976,31 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.36</v>
+        <v>3.86</v>
       </c>
       <c r="D15" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H15" t="n">
         <v>2.25</v>
       </c>
-      <c r="E15" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.23</v>
-      </c>
       <c r="I15" t="n">
-        <v>2.55</v>
+        <v>2.41</v>
       </c>
       <c r="J15" t="n">
-        <v>2.64</v>
+        <v>2.27</v>
       </c>
       <c r="K15" t="n">
-        <v>2.66</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="16">
@@ -1013,31 +1013,31 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.58</v>
+        <v>3.23</v>
       </c>
       <c r="D16" t="n">
-        <v>2.42</v>
+        <v>2.63</v>
       </c>
       <c r="E16" t="n">
-        <v>2.55</v>
+        <v>2.21</v>
       </c>
       <c r="F16" t="n">
-        <v>1.54</v>
+        <v>2.13</v>
       </c>
       <c r="G16" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="H16" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I16" t="n">
         <v>2.34</v>
       </c>
-      <c r="I16" t="n">
-        <v>2.52</v>
-      </c>
       <c r="J16" t="n">
-        <v>2.53</v>
+        <v>2.07</v>
       </c>
       <c r="K16" t="n">
-        <v>2.15</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="17">
@@ -1050,31 +1050,31 @@
         </is>
       </c>
       <c r="C17" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H17" t="n">
         <v>2.72</v>
       </c>
-      <c r="D17" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2.71</v>
-      </c>
       <c r="I17" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="J17" t="n">
-        <v>2.52</v>
+        <v>2.26</v>
       </c>
       <c r="K17" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
     </row>
   </sheetData>

--- a/ma.xlsx
+++ b/ma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>2025-10</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -495,31 +500,34 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="G2" t="n">
         <v>4.76</v>
       </c>
-      <c r="D2" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4.72</v>
-      </c>
       <c r="H2" t="n">
-        <v>4.27</v>
+        <v>4.34</v>
       </c>
       <c r="I2" t="n">
-        <v>3.27</v>
+        <v>3.36</v>
       </c>
       <c r="J2" t="n">
-        <v>3.29</v>
+        <v>3.35</v>
       </c>
       <c r="K2" t="n">
-        <v>3.13</v>
+        <v>3.39</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.86</v>
       </c>
     </row>
     <row r="3">
@@ -532,31 +540,34 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.67</v>
       </c>
-      <c r="D3" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.49</v>
-      </c>
       <c r="K3" t="n">
-        <v>2.51</v>
+        <v>2.53</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.79</v>
       </c>
     </row>
     <row r="4">
@@ -569,31 +580,34 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.11</v>
+        <v>2.09</v>
       </c>
       <c r="D4" t="n">
-        <v>4.01</v>
+        <v>3.99</v>
       </c>
       <c r="E4" t="n">
-        <v>3.03</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>2.87</v>
+        <v>2.83</v>
       </c>
       <c r="G4" t="n">
-        <v>3.45</v>
+        <v>3.41</v>
       </c>
       <c r="H4" t="n">
-        <v>3.46</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="J4" t="n">
-        <v>5.01</v>
+        <v>4.95</v>
       </c>
       <c r="K4" t="n">
-        <v>3.29</v>
+        <v>3.26</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.41</v>
       </c>
     </row>
     <row r="5">
@@ -606,31 +620,34 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.78</v>
+        <v>3.9</v>
       </c>
       <c r="D5" t="n">
-        <v>2.69</v>
+        <v>2.89</v>
       </c>
       <c r="E5" t="n">
-        <v>3.48</v>
+        <v>3.74</v>
       </c>
       <c r="F5" t="n">
-        <v>3.02</v>
+        <v>3.36</v>
       </c>
       <c r="G5" t="n">
-        <v>4.31</v>
+        <v>4.71</v>
       </c>
       <c r="H5" t="n">
-        <v>3.03</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>0.99</v>
+        <v>1.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.29</v>
+        <v>1.75</v>
       </c>
       <c r="K5" t="n">
-        <v>3.21</v>
+        <v>3.67</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.42</v>
       </c>
     </row>
     <row r="6">
@@ -643,31 +660,34 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.83</v>
+        <v>2.82</v>
       </c>
       <c r="D6" t="n">
-        <v>2.81</v>
+        <v>2.87</v>
       </c>
       <c r="E6" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="F6" t="n">
-        <v>3.16</v>
+        <v>3.23</v>
       </c>
       <c r="G6" t="n">
-        <v>3.48</v>
+        <v>3.44</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.29</v>
       </c>
       <c r="I6" t="n">
-        <v>3.01</v>
+        <v>2.97</v>
       </c>
       <c r="J6" t="n">
-        <v>3.17</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>2.69</v>
+        <v>2.8</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="7">
@@ -680,31 +700,34 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.46</v>
+        <v>1.32</v>
       </c>
       <c r="D7" t="n">
-        <v>3.85</v>
+        <v>3.76</v>
       </c>
       <c r="E7" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="F7" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="G7" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="H7" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="I7" t="n">
-        <v>3.64</v>
+        <v>3.58</v>
       </c>
       <c r="J7" t="n">
-        <v>3.34</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>3.57</v>
+        <v>3.53</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.74</v>
       </c>
     </row>
     <row r="8">
@@ -717,31 +740,34 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-2.05</v>
+        <v>-4.58</v>
       </c>
       <c r="D8" t="n">
-        <v>6.7</v>
+        <v>6.56</v>
       </c>
       <c r="E8" t="n">
-        <v>0.38</v>
+        <v>0.29</v>
       </c>
       <c r="F8" t="n">
-        <v>2.19</v>
+        <v>2.1</v>
       </c>
       <c r="G8" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="H8" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="I8" t="n">
-        <v>4.82</v>
+        <v>4.71</v>
       </c>
       <c r="J8" t="n">
-        <v>3.73</v>
+        <v>3.55</v>
       </c>
       <c r="K8" t="n">
-        <v>2.41</v>
+        <v>2.29</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="9">
@@ -754,31 +780,34 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-8.41</v>
+        <v>-11.09</v>
       </c>
       <c r="D9" t="n">
-        <v>15.17</v>
+        <v>15.16</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.2</v>
+        <v>-1.22</v>
       </c>
       <c r="F9" t="n">
-        <v>3.71</v>
+        <v>3.68</v>
       </c>
       <c r="G9" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="H9" t="n">
-        <v>0.72</v>
+        <v>0.89</v>
       </c>
       <c r="I9" t="n">
-        <v>6.55</v>
+        <v>6.53</v>
       </c>
       <c r="J9" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="K9" t="n">
-        <v>0.63</v>
+        <v>0.7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.22</v>
       </c>
     </row>
     <row r="10">
@@ -791,31 +820,34 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.42</v>
+        <v>-0.01</v>
       </c>
       <c r="D10" t="n">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="E10" t="n">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
       <c r="F10" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>3.14</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="I10" t="n">
-        <v>3.64</v>
+        <v>3.46</v>
       </c>
       <c r="J10" t="n">
-        <v>5.06</v>
+        <v>4.83</v>
       </c>
       <c r="K10" t="n">
-        <v>3.63</v>
+        <v>3.39</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="11">
@@ -828,16 +860,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.79</v>
+        <v>3.8</v>
       </c>
       <c r="D11" t="n">
-        <v>3.69</v>
+        <v>3.7</v>
       </c>
       <c r="E11" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.86</v>
+        <v>-1.87</v>
       </c>
       <c r="G11" t="n">
         <v>1.93</v>
@@ -852,7 +884,10 @@
         <v>0.96</v>
       </c>
       <c r="K11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="12">
@@ -865,7 +900,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.56</v>
+        <v>3.57</v>
       </c>
       <c r="D12" t="n">
         <v>2.49</v>
@@ -886,10 +921,13 @@
         <v>1.75</v>
       </c>
       <c r="J12" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="K12" t="n">
         <v>1.44</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="13">
@@ -902,13 +940,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3.22</v>
+        <v>3.23</v>
       </c>
       <c r="D13" t="n">
         <v>3.33</v>
       </c>
       <c r="E13" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="F13" t="n">
         <v>1.2</v>
@@ -927,6 +965,9 @@
       </c>
       <c r="K13" t="n">
         <v>1.72</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="14">
@@ -939,31 +980,34 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.17</v>
+        <v>2.75</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="E14" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="F14" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="G14" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H14" t="n">
         <v>2.55</v>
       </c>
       <c r="I14" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="J14" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="K14" t="n">
-        <v>2.29</v>
+        <v>2.27</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.26</v>
       </c>
     </row>
     <row r="15">
@@ -979,28 +1023,31 @@
         <v>3.86</v>
       </c>
       <c r="D15" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="E15" t="n">
-        <v>2.09</v>
+        <v>2.07</v>
       </c>
       <c r="F15" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="G15" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="H15" t="n">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="I15" t="n">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="J15" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="K15" t="n">
-        <v>2.57</v>
+        <v>2.61</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.86</v>
       </c>
     </row>
     <row r="16">
@@ -1016,28 +1063,31 @@
         <v>3.23</v>
       </c>
       <c r="D16" t="n">
-        <v>2.63</v>
+        <v>2.66</v>
       </c>
       <c r="E16" t="n">
-        <v>2.21</v>
+        <v>2.19</v>
       </c>
       <c r="F16" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G16" t="n">
         <v>2.13</v>
       </c>
-      <c r="G16" t="n">
-        <v>2.15</v>
-      </c>
       <c r="H16" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="I16" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="J16" t="n">
-        <v>2.07</v>
+        <v>2.11</v>
       </c>
       <c r="K16" t="n">
-        <v>2.04</v>
+        <v>2.09</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.74</v>
       </c>
     </row>
     <row r="17">
@@ -1050,31 +1100,34 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3.08</v>
+        <v>2.77</v>
       </c>
       <c r="D17" t="n">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="E17" t="n">
-        <v>2.09</v>
+        <v>2.07</v>
       </c>
       <c r="F17" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="G17" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="H17" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="I17" t="n">
-        <v>2.67</v>
+        <v>2.64</v>
       </c>
       <c r="J17" t="n">
         <v>2.26</v>
       </c>
       <c r="K17" t="n">
-        <v>2.4</v>
+        <v>2.41</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>

--- a/ma.xlsx
+++ b/ma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>2025-11</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2025-12</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -500,34 +505,37 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.71</v>
+        <v>4.78</v>
       </c>
       <c r="D2" t="n">
-        <v>4.32</v>
+        <v>4.08</v>
       </c>
       <c r="E2" t="n">
-        <v>4.86</v>
+        <v>5.64</v>
       </c>
       <c r="F2" t="n">
-        <v>4.55</v>
+        <v>3.76</v>
       </c>
       <c r="G2" t="n">
-        <v>4.76</v>
+        <v>4.96</v>
       </c>
       <c r="H2" t="n">
-        <v>4.34</v>
+        <v>4.29</v>
       </c>
       <c r="I2" t="n">
-        <v>3.36</v>
+        <v>3.48</v>
       </c>
       <c r="J2" t="n">
-        <v>3.35</v>
+        <v>3.33</v>
       </c>
       <c r="K2" t="n">
-        <v>3.39</v>
+        <v>3.33</v>
       </c>
       <c r="L2" t="n">
-        <v>3.86</v>
+        <v>3.75</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3.64</v>
       </c>
     </row>
     <row r="3">
@@ -540,34 +548,37 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.69</v>
+        <v>2.14</v>
       </c>
       <c r="D3" t="n">
-        <v>2.45</v>
+        <v>1.58</v>
       </c>
       <c r="E3" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="F3" t="n">
-        <v>3.02</v>
+        <v>2.89</v>
       </c>
       <c r="G3" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="H3" t="n">
-        <v>2.96</v>
+        <v>2.59</v>
       </c>
       <c r="I3" t="n">
-        <v>3.2</v>
+        <v>4.73</v>
       </c>
       <c r="J3" t="n">
-        <v>2.67</v>
+        <v>1.83</v>
       </c>
       <c r="K3" t="n">
-        <v>2.53</v>
+        <v>1.98</v>
       </c>
       <c r="L3" t="n">
-        <v>2.79</v>
+        <v>2.06</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.17</v>
       </c>
     </row>
     <row r="4">
@@ -580,34 +591,37 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.09</v>
+        <v>-3.94</v>
       </c>
       <c r="D4" t="n">
-        <v>3.99</v>
+        <v>4.22</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>3.76</v>
       </c>
       <c r="F4" t="n">
-        <v>2.83</v>
+        <v>3.59</v>
       </c>
       <c r="G4" t="n">
-        <v>3.41</v>
+        <v>4.05</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="I4" t="n">
-        <v>2.5</v>
+        <v>-1.15</v>
       </c>
       <c r="J4" t="n">
-        <v>4.95</v>
+        <v>10.05</v>
       </c>
       <c r="K4" t="n">
-        <v>3.26</v>
+        <v>4.14</v>
       </c>
       <c r="L4" t="n">
-        <v>3.41</v>
+        <v>4.08</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4.12</v>
       </c>
     </row>
     <row r="5">
@@ -620,34 +634,37 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.9</v>
+        <v>3.83</v>
       </c>
       <c r="D5" t="n">
-        <v>2.89</v>
+        <v>2.53</v>
       </c>
       <c r="E5" t="n">
-        <v>3.74</v>
+        <v>3.41</v>
       </c>
       <c r="F5" t="n">
-        <v>3.36</v>
+        <v>2.7</v>
       </c>
       <c r="G5" t="n">
-        <v>4.71</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>2.65</v>
       </c>
       <c r="I5" t="n">
-        <v>1.5</v>
+        <v>0.66</v>
       </c>
       <c r="J5" t="n">
-        <v>1.75</v>
+        <v>0.77</v>
       </c>
       <c r="K5" t="n">
-        <v>3.67</v>
+        <v>2.64</v>
       </c>
       <c r="L5" t="n">
-        <v>4.42</v>
+        <v>3.37</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="6">
@@ -660,34 +677,37 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.82</v>
+        <v>1.48</v>
       </c>
       <c r="D6" t="n">
-        <v>2.87</v>
+        <v>2.5</v>
       </c>
       <c r="E6" t="n">
-        <v>2.9</v>
+        <v>3.26</v>
       </c>
       <c r="F6" t="n">
-        <v>3.23</v>
+        <v>3.04</v>
       </c>
       <c r="G6" t="n">
-        <v>3.44</v>
+        <v>3.61</v>
       </c>
       <c r="H6" t="n">
-        <v>3.29</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>2.97</v>
+        <v>2.83</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.82</v>
       </c>
       <c r="K6" t="n">
-        <v>2.8</v>
+        <v>2.71</v>
       </c>
       <c r="L6" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.17</v>
       </c>
     </row>
     <row r="7">
@@ -700,16 +720,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="D7" t="n">
-        <v>3.76</v>
+        <v>3.75</v>
       </c>
       <c r="E7" t="n">
         <v>1.05</v>
       </c>
       <c r="F7" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="G7" t="n">
         <v>1.3</v>
@@ -718,16 +738,19 @@
         <v>1.71</v>
       </c>
       <c r="I7" t="n">
-        <v>3.58</v>
+        <v>3.57</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.27</v>
       </c>
       <c r="K7" t="n">
-        <v>3.53</v>
+        <v>3.55</v>
       </c>
       <c r="L7" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.01</v>
       </c>
     </row>
     <row r="8">
@@ -743,16 +766,16 @@
         <v>-4.58</v>
       </c>
       <c r="D8" t="n">
-        <v>6.56</v>
+        <v>6.57</v>
       </c>
       <c r="E8" t="n">
         <v>0.29</v>
       </c>
       <c r="F8" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G8" t="n">
         <v>2.1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.11</v>
       </c>
       <c r="H8" t="n">
         <v>1.54</v>
@@ -761,13 +784,16 @@
         <v>4.71</v>
       </c>
       <c r="J8" t="n">
-        <v>3.55</v>
+        <v>3.58</v>
       </c>
       <c r="K8" t="n">
-        <v>2.29</v>
+        <v>2.32</v>
       </c>
       <c r="L8" t="n">
-        <v>1.03</v>
+        <v>0.98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row r="9">
@@ -780,34 +806,37 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-11.09</v>
+        <v>-11.18</v>
       </c>
       <c r="D9" t="n">
-        <v>15.16</v>
+        <v>15.04</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.22</v>
+        <v>-1.32</v>
       </c>
       <c r="F9" t="n">
-        <v>3.68</v>
+        <v>3.57</v>
       </c>
       <c r="G9" t="n">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
       <c r="H9" t="n">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="I9" t="n">
-        <v>6.53</v>
+        <v>6.42</v>
       </c>
       <c r="J9" t="n">
-        <v>1.74</v>
+        <v>1.63</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="L9" t="n">
-        <v>2.22</v>
+        <v>1.89</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-6.22</v>
       </c>
     </row>
     <row r="10">
@@ -820,34 +849,37 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D10" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="E10" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>3.06</v>
       </c>
       <c r="H10" t="n">
-        <v>1.99</v>
+        <v>2.07</v>
       </c>
       <c r="I10" t="n">
-        <v>3.46</v>
+        <v>3.54</v>
       </c>
       <c r="J10" t="n">
-        <v>4.83</v>
+        <v>4.95</v>
       </c>
       <c r="K10" t="n">
-        <v>3.39</v>
+        <v>3.49</v>
       </c>
       <c r="L10" t="n">
-        <v>0.23</v>
+        <v>0.37</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5.27</v>
       </c>
     </row>
     <row r="11">
@@ -860,34 +892,37 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.8</v>
+        <v>3.03</v>
       </c>
       <c r="D11" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="E11" t="n">
-        <v>0.34</v>
+        <v>1.63</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.87</v>
+        <v>-5.86</v>
       </c>
       <c r="G11" t="n">
-        <v>1.93</v>
+        <v>2.24</v>
       </c>
       <c r="H11" t="n">
-        <v>2.3</v>
+        <v>1.94</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.15</v>
+        <v>1.61</v>
       </c>
       <c r="J11" t="n">
-        <v>0.96</v>
+        <v>1.91</v>
       </c>
       <c r="K11" t="n">
-        <v>1.04</v>
+        <v>1.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.3</v>
+        <v>1.97</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2.26</v>
       </c>
     </row>
     <row r="12">
@@ -900,34 +935,37 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.57</v>
+        <v>3.37</v>
       </c>
       <c r="D12" t="n">
-        <v>2.49</v>
+        <v>2.26</v>
       </c>
       <c r="E12" t="n">
-        <v>1.6</v>
+        <v>1.93</v>
       </c>
       <c r="F12" t="n">
-        <v>1.28</v>
+        <v>0.26</v>
       </c>
       <c r="G12" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="H12" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="K12" t="n">
         <v>1.63</v>
       </c>
-      <c r="I12" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1.44</v>
-      </c>
       <c r="L12" t="n">
-        <v>0.32</v>
+        <v>0.48</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.55</v>
       </c>
     </row>
     <row r="13">
@@ -940,34 +978,37 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3.23</v>
+        <v>3.06</v>
       </c>
       <c r="D13" t="n">
-        <v>3.33</v>
+        <v>3.14</v>
       </c>
       <c r="E13" t="n">
-        <v>1.55</v>
+        <v>1.84</v>
       </c>
       <c r="F13" t="n">
-        <v>1.2</v>
+        <v>0.31</v>
       </c>
       <c r="G13" t="n">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="H13" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="I13" t="n">
-        <v>2.3</v>
+        <v>2.69</v>
       </c>
       <c r="J13" t="n">
-        <v>1.09</v>
+        <v>1.28</v>
       </c>
       <c r="K13" t="n">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7</v>
+        <v>0.84</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.36</v>
       </c>
     </row>
     <row r="14">
@@ -980,34 +1021,37 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.75</v>
+        <v>2.68</v>
       </c>
       <c r="D14" t="n">
-        <v>2.96</v>
+        <v>2.87</v>
       </c>
       <c r="E14" t="n">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="F14" t="n">
-        <v>1.49</v>
+        <v>1.06</v>
       </c>
       <c r="G14" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="H14" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="I14" t="n">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="J14" t="n">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="K14" t="n">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="L14" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row r="15">
@@ -1020,34 +1064,37 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.86</v>
+        <v>3.3</v>
       </c>
       <c r="D15" t="n">
-        <v>2.45</v>
+        <v>2.22</v>
       </c>
       <c r="E15" t="n">
-        <v>2.07</v>
+        <v>2.33</v>
       </c>
       <c r="F15" t="n">
-        <v>1.95</v>
+        <v>1.44</v>
       </c>
       <c r="G15" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="H15" t="n">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="I15" t="n">
-        <v>2.4</v>
+        <v>2.53</v>
       </c>
       <c r="J15" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="K15" t="n">
-        <v>2.61</v>
+        <v>2.66</v>
       </c>
       <c r="L15" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="16">
@@ -1060,34 +1107,37 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.23</v>
+        <v>2.52</v>
       </c>
       <c r="D16" t="n">
-        <v>2.66</v>
+        <v>2.37</v>
       </c>
       <c r="E16" t="n">
-        <v>2.19</v>
+        <v>2.52</v>
       </c>
       <c r="F16" t="n">
-        <v>2.16</v>
+        <v>1.51</v>
       </c>
       <c r="G16" t="n">
-        <v>2.13</v>
+        <v>2.24</v>
       </c>
       <c r="H16" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="I16" t="n">
-        <v>2.32</v>
+        <v>2.49</v>
       </c>
       <c r="J16" t="n">
-        <v>2.11</v>
+        <v>2.49</v>
       </c>
       <c r="K16" t="n">
-        <v>2.09</v>
+        <v>2.15</v>
       </c>
       <c r="L16" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.33</v>
       </c>
     </row>
     <row r="17">
@@ -1100,34 +1150,37 @@
         </is>
       </c>
       <c r="C17" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="D17" t="n">
         <v>2.77</v>
       </c>
-      <c r="D17" t="n">
-        <v>2.94</v>
-      </c>
       <c r="E17" t="n">
-        <v>2.07</v>
+        <v>2.26</v>
       </c>
       <c r="F17" t="n">
-        <v>1.93</v>
+        <v>1.56</v>
       </c>
       <c r="G17" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="H17" t="n">
-        <v>2.74</v>
+        <v>2.69</v>
       </c>
       <c r="I17" t="n">
-        <v>2.64</v>
+        <v>2.73</v>
       </c>
       <c r="J17" t="n">
-        <v>2.26</v>
+        <v>2.47</v>
       </c>
       <c r="K17" t="n">
-        <v>2.41</v>
+        <v>2.45</v>
       </c>
       <c r="L17" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>

--- a/ma.xlsx
+++ b/ma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,11 @@
           <t>2025-12</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -505,37 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.78</v>
+        <v>4.58</v>
       </c>
       <c r="D2" t="n">
-        <v>4.08</v>
+        <v>4.24</v>
       </c>
       <c r="E2" t="n">
-        <v>5.64</v>
+        <v>4.8</v>
       </c>
       <c r="F2" t="n">
-        <v>3.76</v>
+        <v>4.52</v>
       </c>
       <c r="G2" t="n">
-        <v>4.96</v>
+        <v>4.74</v>
       </c>
       <c r="H2" t="n">
-        <v>4.29</v>
+        <v>4.34</v>
       </c>
       <c r="I2" t="n">
-        <v>3.48</v>
+        <v>3.38</v>
       </c>
       <c r="J2" t="n">
-        <v>3.33</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>3.33</v>
+        <v>3.49</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>3.86</v>
       </c>
       <c r="M2" t="n">
-        <v>3.64</v>
+        <v>4.02</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4.72</v>
       </c>
     </row>
     <row r="3">
@@ -548,37 +556,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.14</v>
+        <v>2.79</v>
       </c>
       <c r="D3" t="n">
-        <v>1.58</v>
+        <v>2.46</v>
       </c>
       <c r="E3" t="n">
-        <v>2.68</v>
+        <v>2.79</v>
       </c>
       <c r="F3" t="n">
-        <v>2.89</v>
+        <v>3.01</v>
       </c>
       <c r="G3" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="H3" t="n">
-        <v>2.59</v>
+        <v>2.85</v>
       </c>
       <c r="I3" t="n">
-        <v>4.73</v>
+        <v>3.15</v>
       </c>
       <c r="J3" t="n">
-        <v>1.83</v>
+        <v>2.49</v>
       </c>
       <c r="K3" t="n">
-        <v>1.98</v>
+        <v>2.36</v>
       </c>
       <c r="L3" t="n">
-        <v>2.06</v>
+        <v>2.55</v>
       </c>
       <c r="M3" t="n">
-        <v>2.17</v>
+        <v>2.36</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.08</v>
       </c>
     </row>
     <row r="4">
@@ -591,37 +602,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-3.94</v>
+        <v>1.96</v>
       </c>
       <c r="D4" t="n">
-        <v>4.22</v>
+        <v>3.69</v>
       </c>
       <c r="E4" t="n">
-        <v>3.76</v>
+        <v>2.7</v>
       </c>
       <c r="F4" t="n">
-        <v>3.59</v>
+        <v>2.56</v>
       </c>
       <c r="G4" t="n">
-        <v>4.05</v>
+        <v>3.06</v>
       </c>
       <c r="H4" t="n">
-        <v>3.85</v>
+        <v>3.08</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.15</v>
+        <v>2.16</v>
       </c>
       <c r="J4" t="n">
-        <v>10.05</v>
+        <v>4.48</v>
       </c>
       <c r="K4" t="n">
-        <v>4.14</v>
+        <v>2.82</v>
       </c>
       <c r="L4" t="n">
-        <v>4.08</v>
+        <v>3.03</v>
       </c>
       <c r="M4" t="n">
-        <v>4.12</v>
+        <v>3.1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.86</v>
       </c>
     </row>
     <row r="5">
@@ -634,37 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.83</v>
+        <v>3.76</v>
       </c>
       <c r="D5" t="n">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="E5" t="n">
-        <v>3.41</v>
+        <v>3.49</v>
       </c>
       <c r="F5" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="I5" t="n">
-        <v>0.66</v>
+        <v>0.87</v>
       </c>
       <c r="J5" t="n">
-        <v>0.77</v>
+        <v>1.01</v>
       </c>
       <c r="K5" t="n">
-        <v>2.64</v>
+        <v>2.85</v>
       </c>
       <c r="L5" t="n">
-        <v>3.37</v>
+        <v>3.59</v>
       </c>
       <c r="M5" t="n">
-        <v>0.53</v>
+        <v>0.73</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.23</v>
       </c>
     </row>
     <row r="6">
@@ -677,37 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.48</v>
+        <v>2.78</v>
       </c>
       <c r="D6" t="n">
-        <v>2.5</v>
+        <v>2.78</v>
       </c>
       <c r="E6" t="n">
-        <v>3.26</v>
+        <v>2.83</v>
       </c>
       <c r="F6" t="n">
-        <v>3.04</v>
+        <v>3.13</v>
       </c>
       <c r="G6" t="n">
-        <v>3.61</v>
+        <v>3.33</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="I6" t="n">
-        <v>2.83</v>
+        <v>2.87</v>
       </c>
       <c r="J6" t="n">
-        <v>3.82</v>
+        <v>3.09</v>
       </c>
       <c r="K6" t="n">
-        <v>2.71</v>
+        <v>2.66</v>
       </c>
       <c r="L6" t="n">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="M6" t="n">
         <v>3.17</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.21</v>
       </c>
     </row>
     <row r="7">
@@ -720,37 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.34</v>
+        <v>1.65</v>
       </c>
       <c r="D7" t="n">
-        <v>3.75</v>
+        <v>3.47</v>
       </c>
       <c r="E7" t="n">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="F7" t="n">
-        <v>1.58</v>
+        <v>0.64</v>
       </c>
       <c r="G7" t="n">
-        <v>1.3</v>
+        <v>0.85</v>
       </c>
       <c r="H7" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="I7" t="n">
-        <v>3.57</v>
+        <v>3.34</v>
       </c>
       <c r="J7" t="n">
-        <v>3.27</v>
+        <v>3.43</v>
       </c>
       <c r="K7" t="n">
-        <v>3.55</v>
+        <v>4.19</v>
       </c>
       <c r="L7" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5.03</v>
       </c>
     </row>
     <row r="8">
@@ -763,37 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-4.58</v>
+        <v>-3.88</v>
       </c>
       <c r="D8" t="n">
-        <v>6.57</v>
+        <v>5.88</v>
       </c>
       <c r="E8" t="n">
-        <v>0.29</v>
+        <v>-0.29</v>
       </c>
       <c r="F8" t="n">
-        <v>2.08</v>
+        <v>-0.11</v>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>1.08</v>
       </c>
       <c r="H8" t="n">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="I8" t="n">
-        <v>4.71</v>
+        <v>4.22</v>
       </c>
       <c r="J8" t="n">
-        <v>3.58</v>
+        <v>3.96</v>
       </c>
       <c r="K8" t="n">
-        <v>2.32</v>
+        <v>3.76</v>
       </c>
       <c r="L8" t="n">
-        <v>0.98</v>
+        <v>0.74</v>
       </c>
       <c r="M8" t="n">
-        <v>0.67</v>
+        <v>0.99</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7.02</v>
       </c>
     </row>
     <row r="9">
@@ -806,37 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-11.18</v>
+        <v>-12.83</v>
       </c>
       <c r="D9" t="n">
-        <v>15.04</v>
+        <v>13.2</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.32</v>
+        <v>-2.8</v>
       </c>
       <c r="F9" t="n">
-        <v>3.57</v>
+        <v>-1.66</v>
       </c>
       <c r="G9" t="n">
-        <v>0.74</v>
+        <v>-1.79</v>
       </c>
       <c r="H9" t="n">
-        <v>0.78</v>
+        <v>0.55</v>
       </c>
       <c r="I9" t="n">
-        <v>6.42</v>
+        <v>5.42</v>
       </c>
       <c r="J9" t="n">
-        <v>1.63</v>
+        <v>2.22</v>
       </c>
       <c r="K9" t="n">
-        <v>0.59</v>
+        <v>4.27</v>
       </c>
       <c r="L9" t="n">
-        <v>1.89</v>
+        <v>1.51</v>
       </c>
       <c r="M9" t="n">
-        <v>-6.22</v>
+        <v>-6.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>15.74</v>
       </c>
     </row>
     <row r="10">
@@ -849,37 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.05</v>
+        <v>2.6</v>
       </c>
       <c r="D10" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="E10" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="F10" t="n">
-        <v>1.05</v>
+        <v>0.91</v>
       </c>
       <c r="G10" t="n">
-        <v>3.06</v>
+        <v>2.93</v>
       </c>
       <c r="H10" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="I10" t="n">
-        <v>3.54</v>
+        <v>3.49</v>
       </c>
       <c r="J10" t="n">
-        <v>4.95</v>
+        <v>5.04</v>
       </c>
       <c r="K10" t="n">
-        <v>3.49</v>
+        <v>3.46</v>
       </c>
       <c r="L10" t="n">
-        <v>0.37</v>
+        <v>0.27</v>
       </c>
       <c r="M10" t="n">
-        <v>5.27</v>
+        <v>5.29</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.42</v>
       </c>
     </row>
     <row r="11">
@@ -892,37 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.03</v>
+        <v>3.72</v>
       </c>
       <c r="D11" t="n">
-        <v>2.8</v>
+        <v>4.4</v>
       </c>
       <c r="E11" t="n">
-        <v>1.63</v>
+        <v>0.33</v>
       </c>
       <c r="F11" t="n">
-        <v>-5.86</v>
+        <v>-2.01</v>
       </c>
       <c r="G11" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="H11" t="n">
-        <v>1.94</v>
+        <v>2.71</v>
       </c>
       <c r="I11" t="n">
-        <v>1.61</v>
+        <v>0.03</v>
       </c>
       <c r="J11" t="n">
-        <v>1.91</v>
+        <v>1.36</v>
       </c>
       <c r="K11" t="n">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
       <c r="L11" t="n">
-        <v>1.97</v>
+        <v>1.73</v>
       </c>
       <c r="M11" t="n">
-        <v>2.26</v>
+        <v>2.79</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5.14</v>
       </c>
     </row>
     <row r="12">
@@ -935,37 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.37</v>
+        <v>3.54</v>
       </c>
       <c r="D12" t="n">
-        <v>2.26</v>
+        <v>2.66</v>
       </c>
       <c r="E12" t="n">
-        <v>1.93</v>
+        <v>1.6</v>
       </c>
       <c r="F12" t="n">
-        <v>0.26</v>
+        <v>1.25</v>
       </c>
       <c r="G12" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="H12" t="n">
-        <v>1.54</v>
+        <v>1.73</v>
       </c>
       <c r="I12" t="n">
-        <v>2.19</v>
+        <v>1.8</v>
       </c>
       <c r="J12" t="n">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="K12" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="L12" t="n">
-        <v>0.48</v>
+        <v>0.42</v>
       </c>
       <c r="M12" t="n">
-        <v>1.55</v>
+        <v>1.68</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.38</v>
       </c>
     </row>
     <row r="13">
@@ -978,37 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3.06</v>
+        <v>3.21</v>
       </c>
       <c r="D13" t="n">
-        <v>3.14</v>
+        <v>3.48</v>
       </c>
       <c r="E13" t="n">
-        <v>1.84</v>
+        <v>1.55</v>
       </c>
       <c r="F13" t="n">
-        <v>0.31</v>
+        <v>1.18</v>
       </c>
       <c r="G13" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1.95</v>
+        <v>2.11</v>
       </c>
       <c r="I13" t="n">
-        <v>2.69</v>
+        <v>2.34</v>
       </c>
       <c r="J13" t="n">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="K13" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="L13" t="n">
-        <v>0.84</v>
+        <v>0.79</v>
       </c>
       <c r="M13" t="n">
-        <v>1.36</v>
+        <v>1.48</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.15</v>
       </c>
     </row>
     <row r="14">
@@ -1021,37 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.68</v>
+        <v>2.86</v>
       </c>
       <c r="D14" t="n">
-        <v>2.87</v>
+        <v>2.93</v>
       </c>
       <c r="E14" t="n">
-        <v>1.92</v>
+        <v>1.69</v>
       </c>
       <c r="F14" t="n">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="G14" t="n">
-        <v>1.28</v>
+        <v>1.13</v>
       </c>
       <c r="H14" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="I14" t="n">
-        <v>2.7</v>
+        <v>2.44</v>
       </c>
       <c r="J14" t="n">
         <v>1.99</v>
       </c>
       <c r="K14" t="n">
-        <v>2.35</v>
+        <v>2.56</v>
       </c>
       <c r="L14" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="M14" t="n">
-        <v>0.97</v>
+        <v>1.08</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.36</v>
       </c>
     </row>
     <row r="15">
@@ -1064,37 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.3</v>
+        <v>3.84</v>
       </c>
       <c r="D15" t="n">
-        <v>2.22</v>
+        <v>2.49</v>
       </c>
       <c r="E15" t="n">
-        <v>2.33</v>
+        <v>2.04</v>
       </c>
       <c r="F15" t="n">
-        <v>1.44</v>
+        <v>1.91</v>
       </c>
       <c r="G15" t="n">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="H15" t="n">
-        <v>2.21</v>
+        <v>2.28</v>
       </c>
       <c r="I15" t="n">
-        <v>2.53</v>
+        <v>2.38</v>
       </c>
       <c r="J15" t="n">
-        <v>2.6</v>
+        <v>2.28</v>
       </c>
       <c r="K15" t="n">
-        <v>2.66</v>
+        <v>2.61</v>
       </c>
       <c r="L15" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="M15" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.34</v>
       </c>
     </row>
     <row r="16">
@@ -1107,37 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.52</v>
+        <v>3.2</v>
       </c>
       <c r="D16" t="n">
-        <v>2.37</v>
+        <v>2.72</v>
       </c>
       <c r="E16" t="n">
-        <v>2.52</v>
+        <v>2.15</v>
       </c>
       <c r="F16" t="n">
-        <v>1.51</v>
+        <v>2.1</v>
       </c>
       <c r="G16" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="H16" t="n">
-        <v>2.31</v>
+        <v>2.4</v>
       </c>
       <c r="I16" t="n">
-        <v>2.49</v>
+        <v>2.3</v>
       </c>
       <c r="J16" t="n">
-        <v>2.49</v>
+        <v>2.08</v>
       </c>
       <c r="K16" t="n">
-        <v>2.15</v>
+        <v>2.09</v>
       </c>
       <c r="L16" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="M16" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.34</v>
       </c>
     </row>
     <row r="17">
@@ -1150,37 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.37</v>
+        <v>2.84</v>
       </c>
       <c r="D17" t="n">
-        <v>2.77</v>
+        <v>2.89</v>
       </c>
       <c r="E17" t="n">
-        <v>2.26</v>
+        <v>1.98</v>
       </c>
       <c r="F17" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="G17" t="n">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="H17" t="n">
-        <v>2.69</v>
+        <v>2.74</v>
       </c>
       <c r="I17" t="n">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="J17" t="n">
-        <v>2.47</v>
+        <v>2.28</v>
       </c>
       <c r="K17" t="n">
-        <v>2.45</v>
+        <v>2.58</v>
       </c>
       <c r="L17" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="M17" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.34</v>
       </c>
     </row>
   </sheetData>

--- a/ma.xlsx
+++ b/ma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>2026-01</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2026-02</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -510,40 +515,43 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.58</v>
+        <v>4.69</v>
       </c>
       <c r="D2" t="n">
-        <v>4.24</v>
+        <v>4.53</v>
       </c>
       <c r="E2" t="n">
-        <v>4.8</v>
+        <v>4.96</v>
       </c>
       <c r="F2" t="n">
-        <v>4.52</v>
+        <v>4.66</v>
       </c>
       <c r="G2" t="n">
-        <v>4.74</v>
+        <v>4.82</v>
       </c>
       <c r="H2" t="n">
-        <v>4.34</v>
+        <v>4.28</v>
       </c>
       <c r="I2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.38</v>
       </c>
-      <c r="J2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.49</v>
-      </c>
       <c r="L2" t="n">
-        <v>3.86</v>
+        <v>3.89</v>
       </c>
       <c r="M2" t="n">
-        <v>4.02</v>
+        <v>3.94</v>
       </c>
       <c r="N2" t="n">
-        <v>4.72</v>
+        <v>4.04</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3.42</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +564,43 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.79</v>
+        <v>2.95</v>
       </c>
       <c r="D3" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="E3" t="n">
-        <v>2.79</v>
+        <v>2.85</v>
       </c>
       <c r="F3" t="n">
-        <v>3.01</v>
+        <v>3.04</v>
       </c>
       <c r="G3" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="H3" t="n">
-        <v>2.85</v>
+        <v>2.89</v>
       </c>
       <c r="I3" t="n">
-        <v>3.15</v>
+        <v>3.23</v>
       </c>
       <c r="J3" t="n">
-        <v>2.49</v>
+        <v>2.39</v>
       </c>
       <c r="K3" t="n">
-        <v>2.36</v>
+        <v>2.29</v>
       </c>
       <c r="L3" t="n">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="M3" t="n">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="N3" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +613,43 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.96</v>
+        <v>0.25</v>
       </c>
       <c r="D4" t="n">
-        <v>3.69</v>
+        <v>3.04</v>
       </c>
       <c r="E4" t="n">
-        <v>2.7</v>
+        <v>2.29</v>
       </c>
       <c r="F4" t="n">
-        <v>2.56</v>
+        <v>2.32</v>
       </c>
       <c r="G4" t="n">
-        <v>3.06</v>
+        <v>3.11</v>
       </c>
       <c r="H4" t="n">
-        <v>3.08</v>
+        <v>3.19</v>
       </c>
       <c r="I4" t="n">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="J4" t="n">
-        <v>4.48</v>
+        <v>4.98</v>
       </c>
       <c r="K4" t="n">
-        <v>2.82</v>
+        <v>3.28</v>
       </c>
       <c r="L4" t="n">
-        <v>3.03</v>
+        <v>3.41</v>
       </c>
       <c r="M4" t="n">
-        <v>3.1</v>
+        <v>3.56</v>
       </c>
       <c r="N4" t="n">
-        <v>2.86</v>
+        <v>3.22</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4.19</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +662,43 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.76</v>
+        <v>4.18</v>
       </c>
       <c r="D5" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="E5" t="n">
-        <v>3.49</v>
+        <v>3.52</v>
       </c>
       <c r="F5" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="H5" t="n">
         <v>2.78</v>
       </c>
-      <c r="G5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.8</v>
-      </c>
       <c r="I5" t="n">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="J5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K5" t="n">
-        <v>2.85</v>
+        <v>2.79</v>
       </c>
       <c r="L5" t="n">
-        <v>3.59</v>
+        <v>3.51</v>
       </c>
       <c r="M5" t="n">
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
       <c r="N5" t="n">
-        <v>2.23</v>
+        <v>2.68</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.82</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +711,43 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.78</v>
+        <v>2.52</v>
       </c>
       <c r="D6" t="n">
-        <v>2.78</v>
+        <v>2.75</v>
       </c>
       <c r="E6" t="n">
-        <v>2.83</v>
+        <v>2.82</v>
       </c>
       <c r="F6" t="n">
-        <v>3.13</v>
+        <v>3.07</v>
       </c>
       <c r="G6" t="n">
-        <v>3.33</v>
+        <v>3.38</v>
       </c>
       <c r="H6" t="n">
-        <v>3.17</v>
+        <v>3.15</v>
       </c>
       <c r="I6" t="n">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="J6" t="n">
-        <v>3.09</v>
+        <v>3.07</v>
       </c>
       <c r="K6" t="n">
-        <v>2.66</v>
+        <v>2.71</v>
       </c>
       <c r="L6" t="n">
-        <v>3.11</v>
+        <v>3.21</v>
       </c>
       <c r="M6" t="n">
-        <v>3.17</v>
+        <v>3.04</v>
       </c>
       <c r="N6" t="n">
-        <v>3.21</v>
+        <v>3.01</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2.91</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +760,43 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.65</v>
+        <v>1.2</v>
       </c>
       <c r="D7" t="n">
-        <v>3.47</v>
+        <v>3.74</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8</v>
+        <v>1.08</v>
       </c>
       <c r="F7" t="n">
-        <v>0.64</v>
+        <v>1.57</v>
       </c>
       <c r="G7" t="n">
-        <v>0.85</v>
+        <v>1.3</v>
       </c>
       <c r="H7" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="I7" t="n">
-        <v>3.34</v>
+        <v>3.58</v>
       </c>
       <c r="J7" t="n">
-        <v>3.43</v>
+        <v>3.31</v>
       </c>
       <c r="K7" t="n">
-        <v>4.19</v>
+        <v>3.57</v>
       </c>
       <c r="L7" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="M7" t="n">
-        <v>1.15</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>5.03</v>
+        <v>4.23</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5.56</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +809,43 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-3.88</v>
+        <v>-4.89</v>
       </c>
       <c r="D8" t="n">
-        <v>5.88</v>
+        <v>6.55</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.29</v>
+        <v>0.36</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.11</v>
+        <v>2.06</v>
       </c>
       <c r="G8" t="n">
-        <v>1.08</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.46</v>
+        <v>1.58</v>
       </c>
       <c r="I8" t="n">
-        <v>4.22</v>
+        <v>4.73</v>
       </c>
       <c r="J8" t="n">
-        <v>3.96</v>
+        <v>3.68</v>
       </c>
       <c r="K8" t="n">
-        <v>3.76</v>
+        <v>2.36</v>
       </c>
       <c r="L8" t="n">
-        <v>0.74</v>
+        <v>0.98</v>
       </c>
       <c r="M8" t="n">
-        <v>0.99</v>
+        <v>0.73</v>
       </c>
       <c r="N8" t="n">
-        <v>7.02</v>
+        <v>5.51</v>
+      </c>
+      <c r="O8" t="n">
+        <v>7.71</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +858,43 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-12.83</v>
+        <v>-12.13</v>
       </c>
       <c r="D9" t="n">
-        <v>13.2</v>
+        <v>15.18</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.8</v>
+        <v>-1.14</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.66</v>
+        <v>3.76</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.79</v>
+        <v>0.93</v>
       </c>
       <c r="H9" t="n">
-        <v>0.55</v>
+        <v>0.97</v>
       </c>
       <c r="I9" t="n">
-        <v>5.42</v>
+        <v>6.61</v>
       </c>
       <c r="J9" t="n">
-        <v>2.22</v>
+        <v>1.81</v>
       </c>
       <c r="K9" t="n">
-        <v>4.27</v>
+        <v>0.78</v>
       </c>
       <c r="L9" t="n">
-        <v>1.51</v>
+        <v>2.08</v>
       </c>
       <c r="M9" t="n">
-        <v>-6.06</v>
+        <v>-6.05</v>
       </c>
       <c r="N9" t="n">
-        <v>15.74</v>
+        <v>10.01</v>
+      </c>
+      <c r="O9" t="n">
+        <v>14.31</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +907,43 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.6</v>
+        <v>0.12</v>
       </c>
       <c r="D10" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="E10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="F10" t="n">
         <v>0.91</v>
       </c>
       <c r="G10" t="n">
-        <v>2.93</v>
+        <v>2.92</v>
       </c>
       <c r="H10" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>3.49</v>
+        <v>3.47</v>
       </c>
       <c r="J10" t="n">
-        <v>5.04</v>
+        <v>4.98</v>
       </c>
       <c r="K10" t="n">
-        <v>3.46</v>
+        <v>3.43</v>
       </c>
       <c r="L10" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="M10" t="n">
-        <v>5.29</v>
+        <v>5.25</v>
       </c>
       <c r="N10" t="n">
-        <v>2.42</v>
+        <v>2.85</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3.55</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +956,43 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.72</v>
+        <v>7.02</v>
       </c>
       <c r="D11" t="n">
-        <v>4.4</v>
+        <v>5.82</v>
       </c>
       <c r="E11" t="n">
-        <v>0.33</v>
+        <v>-0.82</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.01</v>
+        <v>-3.21</v>
       </c>
       <c r="G11" t="n">
-        <v>2.3</v>
+        <v>1.92</v>
       </c>
       <c r="H11" t="n">
-        <v>2.71</v>
+        <v>2.4</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03</v>
+        <v>-0.74</v>
       </c>
       <c r="J11" t="n">
-        <v>1.36</v>
+        <v>0.88</v>
       </c>
       <c r="K11" t="n">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="L11" t="n">
-        <v>1.73</v>
+        <v>0.92</v>
       </c>
       <c r="M11" t="n">
-        <v>2.79</v>
+        <v>2.59</v>
       </c>
       <c r="N11" t="n">
-        <v>5.14</v>
+        <v>5.36</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-3.02</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +1005,43 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.54</v>
+        <v>4.49</v>
       </c>
       <c r="D12" t="n">
-        <v>2.66</v>
+        <v>3.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.6</v>
+        <v>1.28</v>
       </c>
       <c r="F12" t="n">
-        <v>1.25</v>
+        <v>0.97</v>
       </c>
       <c r="G12" t="n">
-        <v>1.11</v>
+        <v>0.99</v>
       </c>
       <c r="H12" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="I12" t="n">
-        <v>1.8</v>
+        <v>1.59</v>
       </c>
       <c r="J12" t="n">
-        <v>1.18</v>
+        <v>1.06</v>
       </c>
       <c r="K12" t="n">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="L12" t="n">
-        <v>0.42</v>
+        <v>0.2</v>
       </c>
       <c r="M12" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="N12" t="n">
-        <v>3.38</v>
+        <v>3.68</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +1054,43 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3.21</v>
+        <v>4.05</v>
       </c>
       <c r="D13" t="n">
-        <v>3.48</v>
+        <v>3.8</v>
       </c>
       <c r="E13" t="n">
-        <v>1.55</v>
+        <v>1.27</v>
       </c>
       <c r="F13" t="n">
-        <v>1.18</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H13" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.34</v>
+        <v>2.13</v>
       </c>
       <c r="J13" t="n">
-        <v>1.17</v>
+        <v>1.06</v>
       </c>
       <c r="K13" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="L13" t="n">
-        <v>0.79</v>
+        <v>0.58</v>
       </c>
       <c r="M13" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="N13" t="n">
-        <v>3.15</v>
+        <v>3.56</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +1103,43 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.86</v>
+        <v>3.12</v>
       </c>
       <c r="D14" t="n">
-        <v>2.93</v>
+        <v>3.19</v>
       </c>
       <c r="E14" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="F14" t="n">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="G14" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="H14" t="n">
-        <v>2.58</v>
+        <v>2.53</v>
       </c>
       <c r="I14" t="n">
-        <v>2.44</v>
+        <v>2.43</v>
       </c>
       <c r="J14" t="n">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="K14" t="n">
-        <v>2.56</v>
+        <v>2.29</v>
       </c>
       <c r="L14" t="n">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>3.36</v>
+        <v>3.48</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3.15</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +1152,43 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.84</v>
+        <v>4.07</v>
       </c>
       <c r="D15" t="n">
-        <v>2.49</v>
+        <v>2.66</v>
       </c>
       <c r="E15" t="n">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="F15" t="n">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="G15" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="H15" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="I15" t="n">
-        <v>2.38</v>
+        <v>2.26</v>
       </c>
       <c r="J15" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="K15" t="n">
-        <v>2.61</v>
+        <v>2.59</v>
       </c>
       <c r="L15" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="M15" t="n">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
       <c r="N15" t="n">
-        <v>3.34</v>
+        <v>3.3</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2.24</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +1201,43 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="D16" t="n">
-        <v>2.72</v>
+        <v>2.92</v>
       </c>
       <c r="E16" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="G16" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H16" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="I16" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="J16" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="K16" t="n">
-        <v>2.09</v>
+        <v>2.11</v>
       </c>
       <c r="L16" t="n">
         <v>1.7</v>
       </c>
       <c r="M16" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="N16" t="n">
-        <v>3.34</v>
+        <v>3.3</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.86</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +1250,43 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.84</v>
+        <v>2.95</v>
       </c>
       <c r="D17" t="n">
-        <v>2.89</v>
+        <v>3.07</v>
       </c>
       <c r="E17" t="n">
         <v>1.98</v>
       </c>
       <c r="F17" t="n">
-        <v>1.64</v>
+        <v>1.82</v>
       </c>
       <c r="G17" t="n">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
       <c r="H17" t="n">
-        <v>2.74</v>
+        <v>2.71</v>
       </c>
       <c r="I17" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="J17" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="K17" t="n">
-        <v>2.58</v>
+        <v>2.41</v>
       </c>
       <c r="L17" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="M17" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="N17" t="n">
-        <v>3.34</v>
+        <v>3.31</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3.07</v>
       </c>
     </row>
   </sheetData>
